--- a/testdata/userDetail.xlsx
+++ b/testdata/userDetail.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
